--- a/carrusel/carruselproductos.xlsx
+++ b/carrusel/carruselproductos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\goldenbike4\carrusel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162B4F76-CA0B-4226-BFF6-8855A5BB773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2DBEAF-90BA-425D-9D60-86F2C229055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>nombre</t>
   </si>
@@ -39,13 +39,85 @@
     <t>precio normal</t>
   </si>
   <si>
-    <t>vairo montainbike</t>
-  </si>
-  <si>
-    <t>volta montainbike</t>
-  </si>
-  <si>
-    <t>download (1).webp</t>
+    <t>mojave 2.0.webp</t>
+  </si>
+  <si>
+    <t>RA0006 1.webp</t>
+  </si>
+  <si>
+    <t>RA0006 3.webp</t>
+  </si>
+  <si>
+    <t>RA0009 1.webp</t>
+  </si>
+  <si>
+    <t>RA0009 2.webp</t>
+  </si>
+  <si>
+    <t>RA0009 3.webp</t>
+  </si>
+  <si>
+    <t>RA0017 1.webp</t>
+  </si>
+  <si>
+    <t>RA0017 2.webp</t>
+  </si>
+  <si>
+    <t>RA0017 3.webp</t>
+  </si>
+  <si>
+    <t>Raleigh montainbike</t>
+  </si>
+  <si>
+    <t>Topmega montainbike</t>
+  </si>
+  <si>
+    <t>regal.webp</t>
+  </si>
+  <si>
+    <t>sunshine.webp</t>
+  </si>
+  <si>
+    <t>Volta montainbike</t>
+  </si>
+  <si>
+    <t>avian(2).webp</t>
+  </si>
+  <si>
+    <t>avian.webp</t>
+  </si>
+  <si>
+    <t>razz(02).webp</t>
+  </si>
+  <si>
+    <t>razz.webp</t>
+  </si>
+  <si>
+    <t>vigo.webp</t>
+  </si>
+  <si>
+    <t>Vairo montainbike</t>
+  </si>
+  <si>
+    <t>3.5.webp</t>
+  </si>
+  <si>
+    <t>3.8.webp</t>
+  </si>
+  <si>
+    <t>4.0.webp</t>
+  </si>
+  <si>
+    <t>5.0(2).webp</t>
+  </si>
+  <si>
+    <t>5.0(3).webp</t>
+  </si>
+  <si>
+    <t>5.0.webp</t>
+  </si>
+  <si>
+    <t>8.0.webp</t>
   </si>
 </sst>
 </file>
@@ -55,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +151,14 @@
     </font>
     <font>
       <u val="singleAccounting"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -125,6 +205,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -408,15 +494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" customWidth="1"/>
@@ -438,101 +524,240 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>21000</v>
-      </c>
-      <c r="C2" s="4">
-        <v>100000</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3123</v>
-      </c>
-      <c r="C3" s="3">
-        <v>9000.2000000000007</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3123</v>
-      </c>
-      <c r="C4" s="3">
-        <v>9000.2000000000007</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3123</v>
-      </c>
-      <c r="C5" s="3">
-        <v>9000.2000000000007</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3123</v>
-      </c>
-      <c r="C6" s="3">
-        <v>9000.2000000000007</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3123</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9000.2000000000007</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3123</v>
-      </c>
-      <c r="C8" s="3">
-        <v>9000.2000000000007</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
